--- a/客家音樂.xlsx
+++ b/客家音樂.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEA1713-2799-4301-8826-9529C638F981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B1335-DFA3-4DDA-A2C8-73049DBCDC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE4E61C8-2E33-4106-8BB4-676BBDCD6DE6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="123">
   <si>
     <t>歌曲</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,17 +74,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客家歌謠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>古曲</t>
   </si>
   <si>
-    <t>客家樂曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大開門</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客家戲曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>勇往直前跑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +243,6 @@
     <t>阿樹哥的雜貨店</t>
   </si>
   <si>
-    <t>客家流行曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一領蓬線衫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,6 +279,229 @@
   </si>
   <si>
     <t>時長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪剪花</t>
+  </si>
+  <si>
+    <t>姜雲玉</t>
+  </si>
+  <si>
+    <t>古詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手攀花樹望郎來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詩情畫意的客家花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鳳珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春到人間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那年，在大武山下</t>
+  </si>
+  <si>
+    <t>林少英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管樂器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㧡豬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝其國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桐花桐花</t>
+  </si>
+  <si>
+    <t>李貴盛</t>
+  </si>
+  <si>
+    <t>黃浥玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐敬瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mase mase </t>
+  </si>
+  <si>
+    <t>官靈芝</t>
+  </si>
+  <si>
+    <t>結婚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳忠宏、官靈芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜雲玉、高萓謙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳忠宏、官靈芝、苦瓜樂團</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BANANA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃連煜</t>
+  </si>
+  <si>
+    <t>山歌一條路</t>
+  </si>
+  <si>
+    <t>一眨目</t>
+  </si>
+  <si>
+    <t>羅思容</t>
+  </si>
+  <si>
+    <t>攬花去</t>
+  </si>
+  <si>
+    <t>羅思容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅思容、Hot Band樂團</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來通電</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉劭希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lyrics &amp;Music Liu Shao-xi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果果台客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種樹</t>
+  </si>
+  <si>
+    <t>鍾永豐</t>
+  </si>
+  <si>
+    <t>林生祥</t>
+  </si>
+  <si>
+    <t>野生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林生祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鍾永豐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、林生祥</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做得無</t>
+  </si>
+  <si>
+    <t>黃翠芳</t>
+  </si>
+  <si>
+    <t>油桐花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跈涯來</t>
+  </si>
+  <si>
+    <t>湯宇歆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饒瑞軍、湯宇歆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起身</t>
+  </si>
+  <si>
+    <t>饒瑞軍</t>
+  </si>
+  <si>
+    <t>民謠、九腔十八調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山歌、小型伴奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客家八音、戲曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空弦演奏、九腔十八調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民謠、現代流行曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現代流行曲、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -358,6 +565,33 @@
       <charset val="136"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -381,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,6 +636,21 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,18 +966,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8394B0-6CC3-43E3-867D-E7FD9F281B33}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="52.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -746,10 +995,10 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -757,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -766,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" s="6">
         <v>0.1388888888888889</v>
@@ -777,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -786,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F3" s="6">
         <v>0.14583333333333334</v>
@@ -797,7 +1046,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -817,7 +1066,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -837,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -854,19 +1103,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6">
         <v>0.14722222222222223</v>
@@ -874,19 +1123,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6">
         <v>0.41944444444444445</v>
@@ -894,19 +1143,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="6">
         <v>9.930555555555555E-2</v>
@@ -914,19 +1163,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F10" s="6">
         <v>0.13402777777777777</v>
@@ -934,19 +1183,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="6">
         <v>9.6527777777777768E-2</v>
@@ -954,19 +1200,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="6">
         <v>0.17291666666666669</v>
@@ -974,19 +1217,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" s="6">
         <v>0.2673611111111111</v>
@@ -994,19 +1234,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6">
         <v>0.14305555555555557</v>
@@ -1014,19 +1251,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="6">
         <v>0.1423611111111111</v>
@@ -1034,19 +1268,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F16" s="6">
         <v>0.15833333333333333</v>
@@ -1054,19 +1285,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" s="6">
         <v>0.15625</v>
@@ -1074,19 +1302,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F18" s="6">
         <v>0.14861111111111111</v>
@@ -1094,19 +1319,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F19" s="6">
         <v>0.13194444444444445</v>
@@ -1114,19 +1336,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F20" s="6">
         <v>0.43333333333333335</v>
@@ -1134,19 +1353,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F21" s="6">
         <v>0.1763888888888889</v>
@@ -1154,19 +1370,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F22" s="6">
         <v>0.16944444444444443</v>
@@ -1174,19 +1387,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F23" s="6">
         <v>0.16319444444444445</v>
@@ -1194,19 +1404,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F24" s="6">
         <v>0.4201388888888889</v>
@@ -1214,19 +1421,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F25" s="6">
         <v>0.15833333333333333</v>
@@ -1234,19 +1438,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F26" s="6">
         <v>0.19930555555555554</v>
@@ -1254,19 +1455,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F27" s="6">
         <v>0.14375000000000002</v>
@@ -1274,22 +1472,388 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F28" s="6">
         <v>0.19166666666666665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.18194444444444444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.18611111111111112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.1423611111111111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.15138888888888888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="6">
+        <v>9.8611111111111108E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="6">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.24097222222222223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.17847222222222223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.21805555555555556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.19375000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.19791666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.2076388888888889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.16111111111111112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.21805555555555556</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.19027777777777777</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.19583333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.20138888888888887</v>
       </c>
     </row>
   </sheetData>
